--- a/Proyectos/23-010_TAYARA_Nave/01_Hojas de calculo/HierroRedondo.xlsx
+++ b/Proyectos/23-010_TAYARA_Nave/01_Hojas de calculo/HierroRedondo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ABB7BB-51B7-4CBF-A846-6505A5A8B0FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0A768D-EAF4-4C30-8014-73A67EA1EC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sin pp correa" sheetId="2" r:id="rId1"/>
@@ -43,12 +43,17 @@
     <definedName name="s" localSheetId="0">'sin pp correa'!$B$5</definedName>
     <definedName name="s">'con pp correa'!$B$5</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -973,12 +978,12 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,7 +994,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1019,7 +1024,7 @@
         <v>3.1415926535897931</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1054,7 @@
         <v>1.1309733552923256</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1073,7 +1078,7 @@
         <v>1.1309733552923256</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1095,7 +1100,7 @@
         <v>12.566370614359172</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1110,7 +1115,7 @@
         <v>42.720018726587654</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1118,12 +1123,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1142,7 +1147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1162,7 +1167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1202,7 +1207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -1222,17 +1227,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1247,7 +1252,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1262,12 +1267,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1281,7 +1286,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1297,7 +1302,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1316,7 +1321,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1332,7 +1337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1348,7 +1353,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1364,7 +1369,7 @@
         <v>67.073015554133391</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1380,7 +1385,7 @@
         <v>551.37102569503247</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1396,7 +1401,7 @@
         <v>0.36484800000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -1405,12 +1410,12 @@
         <v>61.390594742025968</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1419,7 +1424,7 @@
         <v>61.390594742025968</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1430,7 +1435,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -1441,7 +1446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1450,7 +1455,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1466,7 +1471,7 @@
         <v>1.0250144488770661</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1475,7 +1480,7 @@
         <v>0.62825575623999663</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1484,7 +1489,7 @@
         <v>251.30230249599865</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1511,12 +1516,12 @@
         <v>Verifica</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1524,7 +1529,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -1551,17 +1556,17 @@
         <v>Verifica</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1577,12 +1582,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1598,7 +1603,7 @@
         <v>8.268476941131371E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1614,7 +1619,7 @@
         <v>0.2285407026528711</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>63</v>
       </c>
@@ -1630,12 +1635,12 @@
         <v>0.14283793915804444</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -1644,7 +1649,7 @@
         <v>6.8405429985948487</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -1655,7 +1660,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -1663,7 +1668,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -1672,7 +1677,7 @@
         <v>36.312015917599503</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>52</v>
       </c>
@@ -1688,7 +1693,7 @@
         <v>1.5805042850429969</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -1697,7 +1702,7 @@
         <v>0.39830711100548188</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -1706,7 +1711,7 @@
         <v>87.627564421206017</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>56</v>
       </c>
@@ -1736,12 +1741,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>77</v>
       </c>
@@ -1750,7 +1755,7 @@
         <v>1.5707963267948966</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>78</v>
       </c>
@@ -1771,15 +1776,15 @@
   <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1790,7 +1795,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1820,12 +1825,12 @@
         <v>3.1415926535897931</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1850,12 +1855,12 @@
         <v>1.1309733552923256</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1874,7 +1879,7 @@
         <v>1.1309733552923256</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1886,7 +1891,7 @@
       </c>
       <c r="E7">
         <f>ROUND(SQRT((B5/2)^2+b^2),2)</f>
-        <v>24.41</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -1896,7 +1901,7 @@
         <v>12.566370614359172</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1908,10 +1913,10 @@
       </c>
       <c r="E8">
         <f>ROUND(SQRT((B5/2)^2+h^2),2)</f>
-        <v>42.38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>47.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1919,12 +1924,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1932,7 +1937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1943,12 +1948,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14">
-        <v>48.27</v>
+        <v>52.58</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1957,18 +1962,18 @@
         <v>4</v>
       </c>
       <c r="F14">
-        <v>44.2</v>
+        <v>48.28</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.49</v>
+        <v>31.33</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -1977,13 +1982,13 @@
         <v>47</v>
       </c>
       <c r="F15">
-        <v>29.16</v>
+        <v>29.08</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -2003,12 +2008,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
       <c r="B17">
-        <v>12.4</v>
+        <v>10.5</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -2017,29 +2022,29 @@
         <v>68</v>
       </c>
       <c r="F17">
-        <v>10.39</v>
+        <v>11.36</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22">
         <f>ROUND(B15/n+B14*100/(nuno*h)+B13*100/(nuno*b),2)</f>
-        <v>68.209999999999994</v>
+        <v>66.25</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -2048,13 +2053,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23">
         <f>ROUND(ABS(B15/n-B14*100/(nuno*h)-B13*100/(nuno*b)),2)</f>
-        <v>52.47</v>
+        <v>50.59</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -2063,12 +2068,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2082,7 +2087,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2098,32 +2103,32 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <f>ROUND(PI()*SQRT(2*L7*d^3/(ncero*L4*s*h^2)),2)</f>
-        <v>13.65</v>
+        <v>13.88</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
       </c>
       <c r="E29">
         <f>ROUND(PI()*SQRT(2*L7*E7^3/(ncero*L5*s*b^2)),2)</f>
-        <v>11.93</v>
+        <v>11.95</v>
       </c>
       <c r="G29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
         <f>h/2</f>
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="D31" t="s">
         <v>41</v>
@@ -2133,13 +2138,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33">
         <f>B26/B31</f>
-        <v>33</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="D33" t="s">
         <v>36</v>
@@ -2149,13 +2154,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35">
         <f>ROUND(SQRT(B33^2+B29^2),2)</f>
-        <v>35.71</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
@@ -2165,13 +2170,13 @@
         <v>67.069999999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
       <c r="B37">
         <f>ROUND(PI()^2*E*L7*0.1/B35^2,2)</f>
-        <v>1945.18</v>
+        <v>2355.65</v>
       </c>
       <c r="D37" t="s">
         <v>44</v>
@@ -2181,13 +2186,13 @@
         <v>551.41999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39">
         <f>ROUND(F15*B27*0.01+F14/(1-F15/B37),2)</f>
-        <v>45.26</v>
+        <v>49.27</v>
       </c>
       <c r="D39" t="s">
         <v>46</v>
@@ -2197,30 +2202,30 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>18</v>
       </c>
       <c r="B41">
         <f>ROUND(F15/n+B39*100/(nuno*h)+E39*100/(nuno*b),2)</f>
-        <v>64.819999999999993</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62.96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
       <c r="B44">
         <f>MAX(B23,B41)</f>
-        <v>64.819999999999993</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62.96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2231,7 +2236,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -2242,63 +2247,63 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48">
         <f>s*B47</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49">
         <f>ROUND(4*B48*SQRT(fycord/E)/(PI()*diamcord*0.1),3)</f>
-        <v>0.79700000000000004</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D49" t="s">
         <v>53</v>
       </c>
       <c r="E49">
         <f>0.451+0.245*B49+0.5*B49^2</f>
-        <v>0.96386949999999993</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.024888</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
       <c r="B50">
         <f>ROUND(1/(E49+SQRT(E49^2-B49^2)),3)</f>
-        <v>0.66400000000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
       <c r="B51">
         <f>ROUND(B50*fycord,2)</f>
-        <v>265.60000000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>251.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53">
         <f>ROUND(B46*B51*L3*0.1,2)</f>
-        <v>66.75</v>
+        <v>63.13</v>
       </c>
       <c r="D53" t="s">
         <v>57</v>
       </c>
       <c r="E53">
         <f>B44/B53</f>
-        <v>0.97108614232209722</v>
+        <v>0.99730714398859499</v>
       </c>
       <c r="F53" t="str">
         <f>IF(E53&gt;G53,"&gt;","&lt;")</f>
@@ -2312,12 +2317,12 @@
         <v>Verifica</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2325,7 +2330,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2338,7 +2343,7 @@
       </c>
       <c r="E58">
         <f>B22/B58</f>
-        <v>0.60309460654288238</v>
+        <v>0.58576480990274093</v>
       </c>
       <c r="F58" t="str">
         <f>IF(E58&gt;G58,"&gt;","&lt;")</f>
@@ -2352,23 +2357,23 @@
         <v>Verifica</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63">
         <f>ROUND(B17/(2*h/d),2)</f>
-        <v>6.57</v>
+        <v>5.53</v>
       </c>
       <c r="D63" t="s">
         <v>64</v>
@@ -2378,74 +2383,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67">
         <f>PI()*(1/(1-F15/B37))/400</f>
-        <v>7.9735117560226325E-3</v>
+        <v>7.9521492308729132E-3</v>
       </c>
       <c r="D67" t="s">
         <v>66</v>
       </c>
       <c r="E67">
         <f>PI()*(1/(1-F15/E37))/400</f>
-        <v>8.2925028771229058E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.2912328226944308E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
       <c r="B69">
         <f>F17+B67*F15</f>
-        <v>10.622507602805621</v>
+        <v>11.591248499633783</v>
       </c>
       <c r="D69" t="s">
         <v>70</v>
       </c>
       <c r="E69">
         <f>F16+E67*F15</f>
-        <v>0.24180938389690393</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.24110905048395403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>63</v>
       </c>
       <c r="B71">
         <f>B69/(2*h/d)</f>
-        <v>5.6272734025862778</v>
+        <v>6.1085879593070045</v>
       </c>
       <c r="D71" t="s">
         <v>64</v>
       </c>
       <c r="E71">
         <f>E69/(2*b/E7)</f>
-        <v>0.14756417652308562</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.15069315655247126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
       <c r="B75">
         <f>MAX(B63,E63,B71,E71)</f>
-        <v>6.57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.1085879593070045</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -2456,7 +2461,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -2464,63 +2469,63 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>73</v>
       </c>
       <c r="B79">
         <f>B78*d</f>
-        <v>36.023000000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.3155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>52</v>
       </c>
       <c r="B80">
         <f>4*B79*SQRT(fydiag/E)/(PI()*diamdiag*0.1)</f>
-        <v>1.2676667325244806</v>
+        <v>1.41872187644257</v>
       </c>
       <c r="D80" t="s">
         <v>53</v>
       </c>
       <c r="E80">
         <f>0.451+0.245*B80+0.5*B80^2</f>
-        <v>1.5650678218431442</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.8049727410767931</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>54</v>
       </c>
       <c r="B81">
         <f>1/(E80+SQRT(E80^2-B80^2))</f>
-        <v>0.40275109337498116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.34236752189612268</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>55</v>
       </c>
       <c r="B82">
         <f>B81*fydiag</f>
-        <v>88.605240542495849</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75.320854817146994</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>56</v>
       </c>
       <c r="B84">
         <f>B77*B82*L4*0.1</f>
-        <v>8.5178641263905615</v>
+        <v>7.2407997911629636</v>
       </c>
       <c r="D84" t="s">
         <v>57</v>
       </c>
       <c r="E84">
         <f>B75/B84</f>
-        <v>0.77132012233494418</v>
+        <v>0.84363442375001618</v>
       </c>
       <c r="F84" t="str">
         <f>IF(E84&gt;G84,"&gt;","&lt;")</f>
@@ -2537,12 +2542,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>77</v>
       </c>
@@ -2551,13 +2556,13 @@
         <v>1.5707963267948966</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>78</v>
       </c>
       <c r="B93">
         <f>10*B92*h/(s*ncero)</f>
-        <v>11.21997376282069</v>
+        <v>11.780972450961723</v>
       </c>
     </row>
   </sheetData>

--- a/Proyectos/23-010_TAYARA_Nave/01_Hojas de calculo/HierroRedondo.xlsx
+++ b/Proyectos/23-010_TAYARA_Nave/01_Hojas de calculo/HierroRedondo.xlsx
@@ -1,59 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0A768D-EAF4-4C30-8014-73A67EA1EC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44D692D-AC1C-41E1-AA62-28074BB47802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sin pp correa" sheetId="2" r:id="rId1"/>
-    <sheet name="con pp correa" sheetId="1" r:id="rId2"/>
+    <sheet name="diag hierro red" sheetId="7" r:id="rId1"/>
+    <sheet name="Columna" sheetId="1" r:id="rId2"/>
+    <sheet name="Col cn mom red" sheetId="3" r:id="rId3"/>
+    <sheet name="Col Exist Inf" sheetId="5" r:id="rId4"/>
+    <sheet name="Col Exist Sup" sheetId="4" r:id="rId5"/>
+    <sheet name="Larguero" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="b" localSheetId="0">'sin pp correa'!$B$3</definedName>
-    <definedName name="b">'con pp correa'!$B$3</definedName>
-    <definedName name="d" localSheetId="0">'sin pp correa'!$E$8</definedName>
-    <definedName name="d">'con pp correa'!$E$8</definedName>
-    <definedName name="diamcord" localSheetId="0">'sin pp correa'!$E$3</definedName>
-    <definedName name="diamcord">'con pp correa'!$E$3</definedName>
-    <definedName name="diamdiag" localSheetId="0">'sin pp correa'!$E$4</definedName>
-    <definedName name="diamdiag">'con pp correa'!$E$4</definedName>
-    <definedName name="diamdiagl" localSheetId="0">'sin pp correa'!$E$4</definedName>
-    <definedName name="diamdiagl">'con pp correa'!$E$4</definedName>
-    <definedName name="diamdiags" localSheetId="0">'sin pp correa'!$E$5</definedName>
-    <definedName name="diamdiags">'con pp correa'!$E$5</definedName>
-    <definedName name="dy" localSheetId="0">'sin pp correa'!$E$8</definedName>
-    <definedName name="dy">'con pp correa'!$E$8</definedName>
-    <definedName name="E" localSheetId="0">'sin pp correa'!$L$1</definedName>
-    <definedName name="E">'con pp correa'!$L$1</definedName>
-    <definedName name="fycord" localSheetId="0">'sin pp correa'!$H$3</definedName>
-    <definedName name="fycord">'con pp correa'!$H$3</definedName>
-    <definedName name="fydiag" localSheetId="0">'sin pp correa'!$H$4</definedName>
-    <definedName name="fydiag">'con pp correa'!$H$4</definedName>
-    <definedName name="h" localSheetId="0">'sin pp correa'!$B$4</definedName>
-    <definedName name="h">'con pp correa'!$B$4</definedName>
-    <definedName name="n" localSheetId="0">'sin pp correa'!$B$7</definedName>
-    <definedName name="n">'con pp correa'!$B$7</definedName>
-    <definedName name="ncero" localSheetId="0">'sin pp correa'!$B$9</definedName>
-    <definedName name="ncero">'con pp correa'!$B$9</definedName>
-    <definedName name="nuno" localSheetId="0">'sin pp correa'!$B$8</definedName>
-    <definedName name="nuno">'con pp correa'!$B$8</definedName>
-    <definedName name="s" localSheetId="0">'sin pp correa'!$B$5</definedName>
-    <definedName name="s">'con pp correa'!$B$5</definedName>
+    <definedName name="b" localSheetId="2">'Col cn mom red'!$B$3</definedName>
+    <definedName name="b" localSheetId="3">'Col Exist Inf'!$B$3</definedName>
+    <definedName name="b" localSheetId="4">'Col Exist Sup'!$B$3</definedName>
+    <definedName name="b" localSheetId="0">'diag hierro red'!$B$3</definedName>
+    <definedName name="b">Columna!$B$3</definedName>
+    <definedName name="d" localSheetId="2">'Col cn mom red'!$E$8</definedName>
+    <definedName name="d" localSheetId="3">'Col Exist Inf'!$E$8</definedName>
+    <definedName name="d" localSheetId="4">'Col Exist Sup'!$E$8</definedName>
+    <definedName name="d" localSheetId="0">'diag hierro red'!$E$8</definedName>
+    <definedName name="d">Columna!$E$8</definedName>
+    <definedName name="diamcord" localSheetId="2">'Col cn mom red'!$E$3</definedName>
+    <definedName name="diamcord" localSheetId="3">'Col Exist Inf'!$E$3</definedName>
+    <definedName name="diamcord" localSheetId="4">'Col Exist Sup'!$E$3</definedName>
+    <definedName name="diamcord" localSheetId="0">'diag hierro red'!$E$3</definedName>
+    <definedName name="diamcord">Columna!$E$3</definedName>
+    <definedName name="diamdiag" localSheetId="2">'Col cn mom red'!$E$4</definedName>
+    <definedName name="diamdiag" localSheetId="3">'Col Exist Inf'!$E$4</definedName>
+    <definedName name="diamdiag" localSheetId="4">'Col Exist Sup'!$E$4</definedName>
+    <definedName name="diamdiag" localSheetId="0">'diag hierro red'!$E$4</definedName>
+    <definedName name="diamdiag">Columna!$E$4</definedName>
+    <definedName name="diamdiagl" localSheetId="2">'Col cn mom red'!$E$4</definedName>
+    <definedName name="diamdiagl" localSheetId="3">'Col Exist Inf'!$E$4</definedName>
+    <definedName name="diamdiagl" localSheetId="4">'Col Exist Sup'!$E$4</definedName>
+    <definedName name="diamdiagl" localSheetId="0">'diag hierro red'!$E$4</definedName>
+    <definedName name="diamdiagl">Columna!$E$4</definedName>
+    <definedName name="diamdiags" localSheetId="2">'Col cn mom red'!$E$5</definedName>
+    <definedName name="diamdiags" localSheetId="3">'Col Exist Inf'!$E$5</definedName>
+    <definedName name="diamdiags" localSheetId="4">'Col Exist Sup'!$E$5</definedName>
+    <definedName name="diamdiags" localSheetId="0">'diag hierro red'!$E$5</definedName>
+    <definedName name="diamdiags">Columna!$E$5</definedName>
+    <definedName name="dy" localSheetId="2">'Col cn mom red'!$E$8</definedName>
+    <definedName name="dy" localSheetId="3">'Col Exist Inf'!$E$8</definedName>
+    <definedName name="dy" localSheetId="4">'Col Exist Sup'!$E$8</definedName>
+    <definedName name="dy" localSheetId="0">'diag hierro red'!$E$8</definedName>
+    <definedName name="dy">Columna!$E$8</definedName>
+    <definedName name="E" localSheetId="2">'Col cn mom red'!$L$1</definedName>
+    <definedName name="E" localSheetId="3">'Col Exist Inf'!$L$1</definedName>
+    <definedName name="E" localSheetId="4">'Col Exist Sup'!$L$1</definedName>
+    <definedName name="E" localSheetId="0">'diag hierro red'!$L$1</definedName>
+    <definedName name="E">Columna!$L$1</definedName>
+    <definedName name="fycord" localSheetId="2">'Col cn mom red'!$H$3</definedName>
+    <definedName name="fycord" localSheetId="3">'Col Exist Inf'!$H$3</definedName>
+    <definedName name="fycord" localSheetId="4">'Col Exist Sup'!$H$3</definedName>
+    <definedName name="fycord" localSheetId="0">'diag hierro red'!$H$3</definedName>
+    <definedName name="fycord">Columna!$H$3</definedName>
+    <definedName name="fydiag" localSheetId="2">'Col cn mom red'!$H$4</definedName>
+    <definedName name="fydiag" localSheetId="3">'Col Exist Inf'!$H$4</definedName>
+    <definedName name="fydiag" localSheetId="4">'Col Exist Sup'!$H$4</definedName>
+    <definedName name="fydiag" localSheetId="0">'diag hierro red'!$H$4</definedName>
+    <definedName name="fydiag">Columna!$H$4</definedName>
+    <definedName name="h" localSheetId="2">'Col cn mom red'!$B$4</definedName>
+    <definedName name="h" localSheetId="3">'Col Exist Inf'!$B$4</definedName>
+    <definedName name="h" localSheetId="4">'Col Exist Sup'!$B$4</definedName>
+    <definedName name="h" localSheetId="0">'diag hierro red'!$B$4</definedName>
+    <definedName name="h">Columna!$B$4</definedName>
+    <definedName name="n" localSheetId="2">'Col cn mom red'!$B$7</definedName>
+    <definedName name="n" localSheetId="3">'Col Exist Inf'!$B$7</definedName>
+    <definedName name="n" localSheetId="4">'Col Exist Sup'!$B$7</definedName>
+    <definedName name="n" localSheetId="0">'diag hierro red'!$B$7</definedName>
+    <definedName name="n">Columna!$B$7</definedName>
+    <definedName name="ncero" localSheetId="2">'Col cn mom red'!$B$9</definedName>
+    <definedName name="ncero" localSheetId="3">'Col Exist Inf'!$B$9</definedName>
+    <definedName name="ncero" localSheetId="4">'Col Exist Sup'!$B$9</definedName>
+    <definedName name="ncero" localSheetId="0">'diag hierro red'!$B$9</definedName>
+    <definedName name="ncero">Columna!$B$9</definedName>
+    <definedName name="nuno" localSheetId="2">'Col cn mom red'!$B$8</definedName>
+    <definedName name="nuno" localSheetId="3">'Col Exist Inf'!$B$8</definedName>
+    <definedName name="nuno" localSheetId="4">'Col Exist Sup'!$B$8</definedName>
+    <definedName name="nuno" localSheetId="0">'diag hierro red'!$B$8</definedName>
+    <definedName name="nuno">Columna!$B$8</definedName>
+    <definedName name="s" localSheetId="2">'Col cn mom red'!$B$5</definedName>
+    <definedName name="s" localSheetId="3">'Col Exist Inf'!$B$5</definedName>
+    <definedName name="s" localSheetId="4">'Col Exist Sup'!$B$5</definedName>
+    <definedName name="s" localSheetId="0">'diag hierro red'!$B$5</definedName>
+    <definedName name="s">Columna!$B$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -61,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="94">
   <si>
     <t>diam cord</t>
   </si>
@@ -307,6 +351,42 @@
   </si>
   <si>
     <t>para Fy &lt; 250MPa</t>
+  </si>
+  <si>
+    <t>Cord comp</t>
+  </si>
+  <si>
+    <t>Cord tracc</t>
+  </si>
+  <si>
+    <t>Diag</t>
+  </si>
+  <si>
+    <t>alfa sup</t>
+  </si>
+  <si>
+    <t>alfa lat</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>Fycord</t>
+  </si>
+  <si>
+    <t>Fydiag</t>
+  </si>
+  <si>
+    <t>n1comp</t>
+  </si>
+  <si>
+    <t>n1tracc</t>
+  </si>
+  <si>
+    <t>Compresion cord sup</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -397,7 +477,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF99B188-081F-4E74-B00D-6E6E57AA2C4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6AE5DE1-7A77-41BF-B0F4-5B270EDADF34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -441,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A08CE1-1E77-481E-972D-C2D06E17D6A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6993598-259C-4E16-8C49-719C4067E85D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -485,7 +565,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02AC0E38-5864-4ADC-A207-5FBD5E98D8E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8721DF-73CE-43FC-BDCE-E23E0A5F508A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -623,6 +703,417 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16668750"/>
+          <a:ext cx="1238095" cy="552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>37863</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C8E6B20-E4C3-40A2-A2CB-6934E35D0A7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="1714500"/>
+          <a:ext cx="1895238" cy="1819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>168667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB2037BD-E8BB-4FA5-9B01-47931F786F68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="4562475"/>
+          <a:ext cx="4867275" cy="3988192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628495</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>76131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0917B720-906F-49DF-B07D-F96B0A4F7E52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16668750"/>
+          <a:ext cx="1238095" cy="552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>37863</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7AABAF-7D64-4FC9-A745-3BDAB119270F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="1714500"/>
+          <a:ext cx="1895238" cy="1819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>168667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0AB94B7-5124-447E-B49B-B76BE927CE70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="4562475"/>
+          <a:ext cx="4867275" cy="3988192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628495</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>76131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B8ABF2-1690-4DC9-A556-EFF650423499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16668750"/>
+          <a:ext cx="1238095" cy="552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>37863</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A4BA3F-79EC-48C6-A896-D3622B6AA14F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="1714500"/>
+          <a:ext cx="1895238" cy="1819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>168667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8937A9F-8078-4117-A0FD-2381B16D09CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="4562475"/>
+          <a:ext cx="4867275" cy="3988192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628495</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>76131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E966D03-94C3-4995-8376-B528FBF5D713}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -971,19 +1462,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ECB94D-A101-4A7A-81D2-811CDA3861C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8134FEA2-03FF-4D30-B04E-33BDB5B44267}">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -994,7 +1485,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1008,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -1021,15 +1512,15 @@
       </c>
       <c r="L3">
         <f>PI()*(diamcord/10)^2/4</f>
-        <v>3.1415926535897931</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.908738521234052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1038,23 +1529,23 @@
         <v>24</v>
       </c>
       <c r="E4" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="2">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="K4" t="s">
         <v>26</v>
       </c>
       <c r="L4">
         <f>PI()*(diamdiagl/10)^2/4</f>
-        <v>1.1309733552923256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.0106192982974678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1068,17 +1559,17 @@
         <v>25</v>
       </c>
       <c r="E5" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
         <v>27</v>
       </c>
       <c r="L5">
         <f>PI()*(diamdiags/10)^2/4</f>
-        <v>1.1309733552923256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.0106192982974678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1089,7 +1580,7 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <f>SQRT((B5/2)^2+b^2)</f>
+        <f>ROUND(SQRT((B5/2)^2+b^2),2)</f>
         <v>25</v>
       </c>
       <c r="K7" t="s">
@@ -1097,10 +1588,10 @@
       </c>
       <c r="L7">
         <f>4*L3</f>
-        <v>12.566370614359172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>19.634954084936208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1111,11 +1602,11 @@
         <v>29</v>
       </c>
       <c r="E8">
-        <f>SQRT((B5/2)^2+h^2)</f>
-        <v>42.720018726587654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <f>ROUND(SQRT((B5/2)^2+h^2),2)</f>
+        <v>47.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1123,12 +1614,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,7 +1627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1147,12 +1638,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14">
-        <v>50.04</v>
+        <v>52.58</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1161,18 +1652,18 @@
         <v>4</v>
       </c>
       <c r="F14">
-        <v>41.89</v>
+        <v>48.28</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.659999999999997</v>
+        <v>31.33</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -1181,13 +1672,13 @@
         <v>47</v>
       </c>
       <c r="F15">
-        <v>27.64</v>
+        <v>29.08</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1207,12 +1698,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
       <c r="B17">
-        <v>12.81</v>
+        <v>10.5</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -1221,29 +1712,29 @@
         <v>68</v>
       </c>
       <c r="F17">
-        <v>9.85</v>
+        <v>11.36</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22">
-        <f>B15/n+B14*100/(nuno*h)+B13*100/(nuno*b)</f>
-        <v>70.715000000000003</v>
+        <f>ROUND(B15/n+B14*100/(nuno*h)+B13*100/(nuno*b),2)</f>
+        <v>66.25</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -1252,13 +1743,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23">
-        <f>ABS(B15/n-B14*100/(nuno*h)-B13*100/(nuno*b))</f>
-        <v>54.384999999999998</v>
+        <f>ROUND(ABS(B15/n-B14*100/(nuno*h)-B13*100/(nuno*b)),2)</f>
+        <v>50.59</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -1267,67 +1758,67 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="2">
-        <v>660</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="2">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
       <c r="B27">
-        <f>B26/500</f>
-        <v>1.32</v>
+        <f>ROUND(B26/500,2)</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
       </c>
       <c r="E27">
-        <f>E26/500</f>
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <f>ROUND(E26/500,2)</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <f>PI()*SQRT(2*L7*d^3/(ncero*L4*s*h^2))</f>
-        <v>13.346123854942697</v>
+        <f>ROUND(PI()*SQRT(2*L7*d^3/(ncero*L4*s*h^2)),2)</f>
+        <v>13.01</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
       </c>
       <c r="E29">
-        <f>PI()*SQRT(2*L7*E7^3/(ncero*L5*s*b^2))</f>
-        <v>11.949452519886409</v>
+        <f>ROUND(PI()*SQRT(2*L7*E7^3/(ncero*L5*s*b^2)),2)</f>
+        <v>11.2</v>
       </c>
       <c r="G29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
         <f>h/2</f>
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="D31" t="s">
         <v>41</v>
@@ -1337,94 +1828,94 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33">
         <f>B26/B31</f>
-        <v>33</v>
+        <v>3.2</v>
       </c>
       <c r="D33" t="s">
         <v>36</v>
       </c>
       <c r="E33">
         <f>E26/E31</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35">
-        <f>SQRT(B33^2+B29^2)</f>
-        <v>35.596615315946408</v>
+        <f>ROUND(SQRT(B33^2+B29^2),2)</f>
+        <v>13.4</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
       </c>
       <c r="E35">
-        <f>SQRT(E33^2+E29^2)</f>
-        <v>67.073015554133391</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <f>ROUND(SQRT(E33^2+E29^2),2)</f>
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
       <c r="B37">
-        <f>PI()^2*E*L7*0.1/B35^2</f>
-        <v>1957.592058403324</v>
+        <f>ROUND(PI()^2*E*L7*0.1/B35^2,2)</f>
+        <v>21584.9</v>
       </c>
       <c r="D37" t="s">
         <v>44</v>
       </c>
       <c r="E37">
-        <f>PI()^2*E*L7*0.1/E35^2</f>
-        <v>551.37102569503247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <f>ROUND(PI()^2*E*L7*0.1/E35^2,2)</f>
+        <v>21877.79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39">
-        <f>F15*B27*0.01+F14/(1-F15/B37)</f>
-        <v>42.854779793620771</v>
+        <f>ROUND(F15*B27*0.01+F14/(1-F15/B37),2)</f>
+        <v>48.39</v>
       </c>
       <c r="D39" t="s">
         <v>46</v>
       </c>
       <c r="E39">
-        <f>F15*E27*0.01+F13/(1-F15/E37)</f>
-        <v>0.36484800000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <f>ROUND(F15*E27*0.01+F13/(1-F15/E37),2)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
       <c r="B41">
-        <f>F15/n+B39*100/(nuno*h)+E39*100/(nuno*b)</f>
-        <v>61.390594742025968</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <f>ROUND(F15/n+B39*100/(nuno*h)+E39*100/(nuno*b),2)</f>
+        <v>61.14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
       <c r="B44">
         <f>MAX(B23,B41)</f>
-        <v>61.390594742025968</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61.14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1435,7 +1926,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -1446,82 +1937,81 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48">
-        <f>s</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49">
-        <f>4*B48*SQRT(fycord/E)/(PI()*diamcord*0.1)</f>
-        <v>0.85411505210061256</v>
+        <f>ROUND(4*B48*SQRT(fycord/E)/(PI()*diamcord*0.1),3)</f>
+        <v>1.355</v>
       </c>
       <c r="D49" t="s">
         <v>53</v>
       </c>
       <c r="E49">
         <f>0.451+0.245*B49+0.5*B49^2</f>
-        <v>1.0250144488770661</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.7009875000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
       <c r="B50">
-        <f>1/(E49+SQRT(E49^2-B49^2))</f>
-        <v>0.62825575623999663</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <f>ROUND(1/(E49+SQRT(E49^2-B49^2)),3)</f>
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
       <c r="B51">
-        <f>B50*fycord</f>
-        <v>251.30230249599865</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <f>ROUND(B50*fycord,2)</f>
+        <v>146.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53">
-        <f>B46*B51*L3*0.1</f>
-        <v>63.159157388130353</v>
+        <f>ROUND(B46*B51*L3*0.1,2)</f>
+        <v>57.49</v>
       </c>
       <c r="D53" t="s">
         <v>57</v>
       </c>
       <c r="E53">
         <f>B44/B53</f>
-        <v>0.97199831791237989</v>
+        <v>1.063489302487389</v>
       </c>
       <c r="F53" t="str">
         <f>IF(E53&gt;G53,"&gt;","&lt;")</f>
-        <v>&lt;</v>
+        <v>&gt;</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" t="str">
         <f>IF(F53="&lt;","Verifica","No Verifica")</f>
-        <v>Verifica</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>No Verifica</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1529,20 +2019,20 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58">
-        <f>B57*fycord*L3/10</f>
-        <v>113.09733552923255</v>
+        <f>ROUND(B57*fycord*L3/10,2)</f>
+        <v>176.71</v>
       </c>
       <c r="D58" t="s">
         <v>57</v>
       </c>
       <c r="E58">
         <f>B22/B58</f>
-        <v>0.6252578778190766</v>
+        <v>0.37490804142380169</v>
       </c>
       <c r="F58" t="str">
         <f>IF(E58&gt;G58,"&gt;","&lt;")</f>
@@ -1556,23 +2046,23 @@
         <v>Verifica</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63">
-        <f>B17/(2*h/d)</f>
-        <v>6.8405429985948487</v>
+        <f>ROUND(B17/(2*h/d),2)</f>
+        <v>5.53</v>
       </c>
       <c r="D63" t="s">
         <v>64</v>
@@ -1582,74 +2072,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67">
         <f>PI()*(1/(1-F15/B37))/400</f>
-        <v>7.9664632116477913E-3</v>
+        <v>7.8645770919953777E-3</v>
       </c>
       <c r="D67" t="s">
         <v>66</v>
       </c>
       <c r="E67">
         <f>PI()*(1/(1-F15/E37))/400</f>
-        <v>8.268476941131371E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7.8644350559804507E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
       <c r="B69">
         <f>F17+B67*F15</f>
-        <v>10.070193043169944</v>
+        <v>11.588701901835226</v>
       </c>
       <c r="D69" t="s">
         <v>70</v>
       </c>
       <c r="E69">
         <f>F16+E67*F15</f>
-        <v>0.2285407026528711</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.22869777142791148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>63</v>
       </c>
       <c r="B71">
         <f>B69/(2*h/d)</f>
-        <v>5.377485442307159</v>
+        <v>6.1072459022671639</v>
       </c>
       <c r="D71" t="s">
         <v>64</v>
       </c>
       <c r="E71">
         <f>E69/(2*b/E7)</f>
-        <v>0.14283793915804444</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.14293610714244467</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>72</v>
       </c>
       <c r="B75">
-        <f>MAX(B63,E63,B71,E71)</f>
-        <v>6.8405429985948487</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <f>36.3/2</f>
+        <v>18.149999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -1660,71 +2150,77 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>74</v>
       </c>
       <c r="B78">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>73</v>
       </c>
       <c r="B79">
-        <f>B78*d</f>
-        <v>36.312015917599503</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <f>B78*D78</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>52</v>
       </c>
       <c r="B80">
         <f>4*B79*SQRT(fydiag/E)/(PI()*diamdiag*0.1)</f>
-        <v>1.2778373419659743</v>
+        <v>1.2099963238092011</v>
       </c>
       <c r="D80" t="s">
         <v>53</v>
       </c>
       <c r="E80">
         <f>0.451+0.245*B80+0.5*B80^2</f>
-        <v>1.5805042850429969</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.4794946511491447</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>54</v>
       </c>
       <c r="B81">
         <f>1/(E80+SQRT(E80^2-B80^2))</f>
-        <v>0.39830711100548188</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.42902723821195671</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>55</v>
       </c>
       <c r="B82">
         <f>B81*fydiag</f>
-        <v>87.627564421206017</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+        <v>171.61089528478269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>56</v>
       </c>
       <c r="B84">
         <f>B77*B82*L4*0.1</f>
-        <v>8.4238774467113924</v>
+        <v>29.328755117903651</v>
       </c>
       <c r="D84" t="s">
         <v>57</v>
       </c>
       <c r="E84">
         <f>B75/B84</f>
-        <v>0.81204208416699331</v>
+        <v>0.61884658680655646</v>
       </c>
       <c r="F84" t="str">
         <f>IF(E84&gt;G84,"&gt;","&lt;")</f>
@@ -1741,27 +2237,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>77</v>
       </c>
       <c r="B92">
         <f>2*(PI()*(diamcord/10)^4/64)</f>
-        <v>1.5707963267948966</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.834951969714103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>78</v>
       </c>
       <c r="B93">
         <f>10*B92*h/(s*ncero)</f>
-        <v>10.471975511965978</v>
+        <v>28.762139772855775</v>
       </c>
     </row>
   </sheetData>
@@ -1779,12 +2275,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +2291,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1825,7 +2321,7 @@
         <v>3.1415926535897931</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1855,7 +2351,7 @@
         <v>1.1309733552923256</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1879,7 +2375,7 @@
         <v>1.1309733552923256</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1901,7 +2397,7 @@
         <v>12.566370614359172</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1916,7 +2412,7 @@
         <v>47.43</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1924,12 +2420,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1937,7 +2433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1948,7 +2444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1968,7 +2464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1988,7 +2484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -2008,7 +2504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -2028,17 +2524,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -2053,7 +2549,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2068,12 +2564,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2087,7 +2583,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2103,7 +2599,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2122,7 +2618,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2138,7 +2634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2154,7 +2650,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2170,7 +2666,7 @@
         <v>67.069999999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2186,7 +2682,7 @@
         <v>551.41999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2202,7 +2698,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -2211,12 +2707,12 @@
         <v>62.96</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2225,7 +2721,7 @@
         <v>62.96</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2236,7 +2732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -2247,7 +2743,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2256,7 +2752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -2272,7 +2768,7 @@
         <v>1.024888</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2281,7 +2777,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -2290,7 +2786,7 @@
         <v>251.2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2317,12 +2813,12 @@
         <v>Verifica</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2330,7 +2826,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2357,17 +2853,17 @@
         <v>Verifica</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2383,12 +2879,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2404,7 +2900,7 @@
         <v>8.2912328226944308E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2420,7 +2916,7 @@
         <v>0.24110905048395403</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>63</v>
       </c>
@@ -2436,12 +2932,12 @@
         <v>0.15069315655247126</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -2450,7 +2946,7 @@
         <v>6.1085879593070045</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -2461,7 +2957,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -2469,7 +2965,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -2478,7 +2974,7 @@
         <v>40.3155</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>52</v>
       </c>
@@ -2494,7 +2990,7 @@
         <v>1.8049727410767931</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -2503,7 +2999,7 @@
         <v>0.34236752189612268</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -2512,7 +3008,7 @@
         <v>75.320854817146994</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>56</v>
       </c>
@@ -2542,12 +3038,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>77</v>
       </c>
@@ -2556,7 +3052,7 @@
         <v>1.5707963267948966</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>78</v>
       </c>
@@ -2570,4 +3066,2585 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D620A744-0E5E-4580-B89D-7A6A8AD8B535}">
+  <dimension ref="A1:L93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>400</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <f>PI()*(diamcord/10)^2/4</f>
+        <v>3.1415926535897931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>220</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4">
+        <f>PI()*(diamdiagl/10)^2/4</f>
+        <v>1.1309733552923256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5">
+        <f>PI()*(diamdiags/10)^2/4</f>
+        <v>1.1309733552923256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <f>ROUND(SQRT((B5/2)^2+b^2),2)</f>
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7">
+        <f>4*L3</f>
+        <v>12.566370614359172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <f>ROUND(SQRT((B5/2)^2+h^2),2)</f>
+        <v>42.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>23.99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>22.56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>29.98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15">
+        <v>28.31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17">
+        <v>5.21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17">
+        <v>5.61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <f>ROUND(B15/n+B14*100/(nuno*h)+B13*100/(nuno*b),2)</f>
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <f>ROUND(ABS(B15/n-B14*100/(nuno*h)-B13*100/(nuno*b)),2)</f>
+        <v>22.49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2">
+        <v>660</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <f>ROUND(B26/500,2)</f>
+        <v>1.32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27">
+        <f>ROUND(E26/500,2)</f>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f>ROUND(PI()*SQRT(2*L7*d^3/(ncero*L4*s*h^2)),2)</f>
+        <v>13.35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <f>ROUND(PI()*SQRT(2*L7*E7^3/(ncero*L5*s*b^2)),2)</f>
+        <v>11.95</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <f>h/2</f>
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <f>b/2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <f>B26/B31</f>
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33">
+        <f>E26/E31</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <f>ROUND(SQRT(B33^2+B29^2),2)</f>
+        <v>35.6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <f>ROUND(SQRT(E33^2+E29^2),2)</f>
+        <v>67.069999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <f>ROUND(PI()^2*E*L7*0.1/B35^2,2)</f>
+        <v>1957.22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37">
+        <f>ROUND(PI()^2*E*L7*0.1/E35^2,2)</f>
+        <v>551.41999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <f>ROUND(F15*B27*0.01+F14/(1-F15/B37),2)</f>
+        <v>23.26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39">
+        <f>ROUND(F15*E27*0.01+F13/(1-F15/E37),2)</f>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <f>ROUND(F15/n+B39*100/(nuno*h)+E39*100/(nuno*b),2)</f>
+        <v>37.08</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <f>MAX(B23,B41)</f>
+        <v>37.08</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <f>s*B47</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <f>ROUND(4*B48*SQRT(fycord/E)/(PI()*diamcord*0.1),3)</f>
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49">
+        <f>0.451+0.245*B49+0.5*B49^2</f>
+        <v>1.024888</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <f>ROUND(1/(E49+SQRT(E49^2-B49^2)),3)</f>
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <f>ROUND(B50*fycord,2)</f>
+        <v>251.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <f>ROUND(B46*B51*L3*0.1,2)</f>
+        <v>63.13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53">
+        <f>B44/B53</f>
+        <v>0.58735941707587513</v>
+      </c>
+      <c r="F53" t="str">
+        <f>IF(E53&gt;G53,"&gt;","&lt;")</f>
+        <v>&lt;</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="str">
+        <f>IF(F53="&lt;","Verifica","No Verifica")</f>
+        <v>Verifica</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <f>ROUND(B57*fycord*L3/10,2)</f>
+        <v>113.1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58">
+        <f>B22/B58</f>
+        <v>0.33138815207780725</v>
+      </c>
+      <c r="F58" t="str">
+        <f>IF(E58&gt;G58,"&gt;","&lt;")</f>
+        <v>&lt;</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="str">
+        <f>IF(F58="&lt;","Verifica","No Verifica")</f>
+        <v>Verifica</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <f>ROUND(B17/(2*h/d),2)</f>
+        <v>2.78</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63">
+        <f>B16/(2*b/E7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <f>PI()*(1/(1-F15/B37))/400</f>
+        <v>7.9692520302385977E-3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67">
+        <f>PI()*(1/(1-F15/E37))/400</f>
+        <v>8.2790284120093458E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <f>F17+B67*F15</f>
+        <v>5.8356095249760553</v>
+      </c>
+      <c r="D69" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69">
+        <f>F16+E67*F15</f>
+        <v>0.23437929434398458</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71">
+        <f>B69/(2*h/d)</f>
+        <v>3.1162154863372131</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71">
+        <f>E69/(2*b/E7)</f>
+        <v>0.14648705896499034</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <f>MAX(B63,E63,B71,E71)</f>
+        <v>3.1162154863372131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>73</v>
+      </c>
+      <c r="B79">
+        <f>B78*d</f>
+        <v>36.311999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80">
+        <f>4*B79*SQRT(fydiag/E)/(PI()*diamdiag*0.1)</f>
+        <v>1.2778367818179757</v>
+      </c>
+      <c r="D80" t="s">
+        <v>53</v>
+      </c>
+      <c r="E80">
+        <f>0.451+0.245*B80+0.5*B80^2</f>
+        <v>1.5805034320288645</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81">
+        <f>1/(E80+SQRT(E80^2-B80^2))</f>
+        <v>0.39830735420451541</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82">
+        <f>B81*fydiag</f>
+        <v>87.627617924993388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84">
+        <f>B77*B82*L4*0.1</f>
+        <v>8.4238825901768148</v>
+      </c>
+      <c r="D84" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84">
+        <f>B75/B84</f>
+        <v>0.3699262724733447</v>
+      </c>
+      <c r="F84" t="str">
+        <f>IF(E84&gt;G84,"&gt;","&lt;")</f>
+        <v>&lt;</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" t="str">
+        <f>IF(F84="&lt;","Verifica","No Verifica")</f>
+        <v>Verifica</v>
+      </c>
+      <c r="J84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92">
+        <f>2*(PI()*(diamcord/10)^4/64)</f>
+        <v>1.5707963267948966</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93">
+        <f>10*B92*h/(s*ncero)</f>
+        <v>10.471975511965978</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73E710E-63B6-4FEF-84F6-90EAAD3E82F5}">
+  <dimension ref="A1:L93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>400</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <f>PI()*(diamcord/10)^2/4</f>
+        <v>4.908738521234052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>220</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4">
+        <f>PI()*(diamdiagl/10)^2/4</f>
+        <v>2.0106192982974678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5">
+        <f>PI()*(diamdiags/10)^2/4</f>
+        <v>2.0106192982974678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <f>ROUND(SQRT((B5/2)^2+b^2),2)</f>
+        <v>33.54</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7">
+        <f>4*L3</f>
+        <v>19.634954084936208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <f>ROUND(SQRT((B5/2)^2+h^2),2)</f>
+        <v>33.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>76.47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>16.66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>67.03</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15">
+        <v>39.68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17">
+        <v>31.65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17">
+        <v>4.49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <f>ROUND(B15/n+B14*100/(nuno*h)+B13*100/(nuno*b),2)</f>
+        <v>144.21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <f>ROUND(ABS(B15/n-B14*100/(nuno*h)-B13*100/(nuno*b)),2)</f>
+        <v>110.69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2">
+        <v>500</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <f>ROUND(B26/500,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27">
+        <f>ROUND(E26/500,2)</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f>ROUND(PI()*SQRT(2*L7*d^3/(ncero*L4*s*h^2)),2)</f>
+        <v>11.61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <f>ROUND(PI()*SQRT(2*L7*E7^3/(ncero*L5*s*b^2)),2)</f>
+        <v>11.61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <f>h/2</f>
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <f>b/2</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <f>B26/B31</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33">
+        <f>E26/E31</f>
+        <v>36.666666666666664</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <f>ROUND(SQRT(B33^2+B29^2),2)</f>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <f>ROUND(SQRT(E33^2+E29^2),2)</f>
+        <v>38.46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <f>ROUND(PI()^2*E*L7*0.1/B35^2,2)</f>
+        <v>3110.36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37">
+        <f>ROUND(PI()^2*E*L7*0.1/E35^2,2)</f>
+        <v>2620.2399999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <f>ROUND(F15*B27*0.01+F14/(1-F15/B37),2)</f>
+        <v>17.27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39">
+        <f>ROUND(F15*E27*0.01+F13/(1-F15/E37),2)</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <f>ROUND(F15/n+B39*100/(nuno*h)+E39*100/(nuno*b),2)</f>
+        <v>39.44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <f>MAX(B23,B41)</f>
+        <v>110.69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <f>s*B47</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <f>ROUND(4*B48*SQRT(fycord/E)/(PI()*diamcord*0.1),3)</f>
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49">
+        <f>0.451+0.245*B49+0.5*B49^2</f>
+        <v>0.85157950000000016</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <f>ROUND(1/(E49+SQRT(E49^2-B49^2)),3)</f>
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <f>ROUND(B50*fycord,2)</f>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <f>ROUND(B46*B51*L3*0.1,2)</f>
+        <v>115.45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53">
+        <f>B44/B53</f>
+        <v>0.95877003031615415</v>
+      </c>
+      <c r="F53" t="str">
+        <f>IF(E53&gt;G53,"&gt;","&lt;")</f>
+        <v>&lt;</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="str">
+        <f>IF(F53="&lt;","Verifica","No Verifica")</f>
+        <v>Verifica</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <f>ROUND(B57*fycord*L3/10,2)</f>
+        <v>176.71</v>
+      </c>
+      <c r="D58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58">
+        <f>B22/B58</f>
+        <v>0.81608284760341798</v>
+      </c>
+      <c r="F58" t="str">
+        <f>IF(E58&gt;G58,"&gt;","&lt;")</f>
+        <v>&lt;</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="str">
+        <f>IF(F58="&lt;","Verifica","No Verifica")</f>
+        <v>Verifica</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <f>ROUND(B17/(2*h/d),2)</f>
+        <v>17.690000000000001</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63">
+        <f>B16/(2*b/E7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <f>PI()*(1/(1-F15/B37))/400</f>
+        <v>7.95547250610577E-3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67">
+        <f>PI()*(1/(1-F15/E37))/400</f>
+        <v>7.9747484408831011E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <f>F17+B67*F15</f>
+        <v>4.8056731490422768</v>
+      </c>
+      <c r="D69" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69">
+        <f>F16+E67*F15</f>
+        <v>0.31643801813424144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71">
+        <f>B69/(2*h/d)</f>
+        <v>2.6863712903146326</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71">
+        <f>E69/(2*b/E7)</f>
+        <v>0.17688885213704097</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <f>MAX(B63,E63,B71,E71)</f>
+        <v>17.690000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>73</v>
+      </c>
+      <c r="B79">
+        <f>B78*d</f>
+        <v>28.508999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80">
+        <f>4*B79*SQRT(fydiag/E)/(PI()*diamdiag*0.1)</f>
+        <v>0.75243408817020541</v>
+      </c>
+      <c r="D80" t="s">
+        <v>53</v>
+      </c>
+      <c r="E80">
+        <f>0.451+0.245*B80+0.5*B80^2</f>
+        <v>0.91842488012196455</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81">
+        <f>1/(E80+SQRT(E80^2-B80^2))</f>
+        <v>0.69201158177558708</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82">
+        <f>B81*fydiag</f>
+        <v>152.24254799062916</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84">
+        <f>B77*B82*L4*0.1</f>
+        <v>26.018653426014676</v>
+      </c>
+      <c r="D84" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84">
+        <f>B75/B84</f>
+        <v>0.67989683056820704</v>
+      </c>
+      <c r="F84" t="str">
+        <f>IF(E84&gt;G84,"&gt;","&lt;")</f>
+        <v>&lt;</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" t="str">
+        <f>IF(F84="&lt;","Verifica","No Verifica")</f>
+        <v>Verifica</v>
+      </c>
+      <c r="J84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92">
+        <f>2*(PI()*(diamcord/10)^4/64)</f>
+        <v>3.834951969714103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93">
+        <f>10*B92*h/(s*ncero)</f>
+        <v>19.17475984857052</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213CD840-C37E-42AF-B641-1EC4D26D681D}">
+  <dimension ref="A1:L93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>400</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <f>PI()*(diamcord/10)^2/4</f>
+        <v>4.908738521234052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>220</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4">
+        <f>PI()*(diamdiagl/10)^2/4</f>
+        <v>2.0106192982974678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5">
+        <f>PI()*(diamdiags/10)^2/4</f>
+        <v>2.0106192982974678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <f>ROUND(SQRT((B5/2)^2+b^2),2)</f>
+        <v>33.54</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7">
+        <f>4*L3</f>
+        <v>19.634954084936208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <f>ROUND(SQRT((B5/2)^2+h^2),2)</f>
+        <v>33.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>57.94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>13.07</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17">
+        <v>10.1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <f>ROUND(B15/n+B14*100/(nuno*h)+B13*100/(nuno*b),2)</f>
+        <v>105.35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <f>ROUND(ABS(B15/n-B14*100/(nuno*h)-B13*100/(nuno*b)),2)</f>
+        <v>87.78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2">
+        <v>500</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <f>ROUND(B26/500,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27">
+        <f>ROUND(E26/500,2)</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f>ROUND(PI()*SQRT(2*L7*d^3/(ncero*L4*s*h^2)),2)</f>
+        <v>11.61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <f>ROUND(PI()*SQRT(2*L7*E7^3/(ncero*L5*s*b^2)),2)</f>
+        <v>11.61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <f>h/2</f>
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <f>b/2</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <f>B26/B31</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33">
+        <f>E26/E31</f>
+        <v>36.666666666666664</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <f>ROUND(SQRT(B33^2+B29^2),2)</f>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <f>ROUND(SQRT(E33^2+E29^2),2)</f>
+        <v>38.46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <f>ROUND(PI()^2*E*L7*0.1/B35^2,2)</f>
+        <v>3110.36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37">
+        <f>ROUND(PI()^2*E*L7*0.1/E35^2,2)</f>
+        <v>2620.2399999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <f>ROUND(F15*B27*0.01+F14/(1-F15/B37),2)</f>
+        <v>13.2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39">
+        <f>ROUND(F15*E27*0.01+F13/(1-F15/E37),2)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <f>ROUND(F15/n+B39*100/(nuno*h)+E39*100/(nuno*b),2)</f>
+        <v>24.41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <f>MAX(B23,B41)</f>
+        <v>87.78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <f>s*B47</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <f>ROUND(4*B48*SQRT(fycord/E)/(PI()*diamcord*0.1),3)</f>
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49">
+        <f>0.451+0.245*B49+0.5*B49^2</f>
+        <v>0.85157950000000016</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <f>ROUND(1/(E49+SQRT(E49^2-B49^2)),3)</f>
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <f>ROUND(B50*fycord,2)</f>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <f>ROUND(B46*B51*L3*0.1,2)</f>
+        <v>115.45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53">
+        <f>B44/B53</f>
+        <v>0.76032914681680375</v>
+      </c>
+      <c r="F53" t="str">
+        <f>IF(E53&gt;G53,"&gt;","&lt;")</f>
+        <v>&lt;</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="str">
+        <f>IF(F53="&lt;","Verifica","No Verifica")</f>
+        <v>Verifica</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <f>ROUND(B57*fycord*L3/10,2)</f>
+        <v>176.71</v>
+      </c>
+      <c r="D58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58">
+        <f>B22/B58</f>
+        <v>0.59617452323015108</v>
+      </c>
+      <c r="F58" t="str">
+        <f>IF(E58&gt;G58,"&gt;","&lt;")</f>
+        <v>&lt;</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="str">
+        <f>IF(F58="&lt;","Verifica","No Verifica")</f>
+        <v>Verifica</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <f>ROUND(B17/(2*h/d),2)</f>
+        <v>12.86</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63">
+        <f>B16/(2*b/E7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <f>PI()*(1/(1-F15/B37))/400</f>
+        <v>7.8766973244412571E-3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67">
+        <f>PI()*(1/(1-F15/E37))/400</f>
+        <v>7.8809609257584606E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <f>F17+B67*F15</f>
+        <v>10.170653975000238</v>
+      </c>
+      <c r="D69" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69">
+        <f>F16+E67*F15</f>
+        <v>7.0692219504053397E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71">
+        <f>B69/(2*h/d)</f>
+        <v>5.6853955720251337</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71">
+        <f>E69/(2*b/E7)</f>
+        <v>3.9516950702765848E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <f>MAX(B63,E63,B71,E71)</f>
+        <v>12.86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>73</v>
+      </c>
+      <c r="B79">
+        <f>B78*d</f>
+        <v>28.508999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80">
+        <f>4*B79*SQRT(fydiag/E)/(PI()*diamdiag*0.1)</f>
+        <v>0.75243408817020541</v>
+      </c>
+      <c r="D80" t="s">
+        <v>53</v>
+      </c>
+      <c r="E80">
+        <f>0.451+0.245*B80+0.5*B80^2</f>
+        <v>0.91842488012196455</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81">
+        <f>1/(E80+SQRT(E80^2-B80^2))</f>
+        <v>0.69201158177558708</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82">
+        <f>B81*fydiag</f>
+        <v>152.24254799062916</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84">
+        <f>B77*B82*L4*0.1</f>
+        <v>26.018653426014676</v>
+      </c>
+      <c r="D84" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84">
+        <f>B75/B84</f>
+        <v>0.49426078242550264</v>
+      </c>
+      <c r="F84" t="str">
+        <f>IF(E84&gt;G84,"&gt;","&lt;")</f>
+        <v>&lt;</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" t="str">
+        <f>IF(F84="&lt;","Verifica","No Verifica")</f>
+        <v>Verifica</v>
+      </c>
+      <c r="J84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92">
+        <f>2*(PI()*(diamcord/10)^4/64)</f>
+        <v>3.834951969714103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93">
+        <f>10*B92*h/(s*ncero)</f>
+        <v>19.17475984857052</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAF4C34-E45E-424C-99FC-3548278B0E08}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>63.43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7">
+        <v>26.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>4.1959999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <f>B11*100/(E4*B1)+B13*100/(E5*B2)</f>
+        <v>20.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Proyectos/23-010_TAYARA_Nave/01_Hojas de calculo/HierroRedondo.xlsx
+++ b/Proyectos/23-010_TAYARA_Nave/01_Hojas de calculo/HierroRedondo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44D692D-AC1C-41E1-AA62-28074BB47802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76343182-60A2-4D29-AB42-3BBBC445DE2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diag hierro red" sheetId="7" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="106">
   <si>
     <t>diam cord</t>
   </si>
@@ -387,6 +387,42 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>Corte</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>diam</t>
+  </si>
+  <si>
+    <t>Ad</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>Fy</t>
+  </si>
+  <si>
+    <t>Chi</t>
+  </si>
+  <si>
+    <t>Vd</t>
+  </si>
+  <si>
+    <t>phic</t>
+  </si>
+  <si>
+    <t>alfa</t>
+  </si>
+  <si>
+    <t>Pd</t>
   </si>
 </sst>
 </file>
@@ -2269,10 +2305,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,7 +2316,7 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2291,7 +2327,18 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>94</v>
+      </c>
+      <c r="W2" t="s">
+        <v>100</v>
+      </c>
+      <c r="X2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2320,8 +2367,23 @@
         <f>PI()*(diamcord/10)^2/4</f>
         <v>3.1415926535897931</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <v>50</v>
+      </c>
+      <c r="U3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2335,23 +2397,39 @@
         <v>24</v>
       </c>
       <c r="E4" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="2">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="K4" t="s">
         <v>26</v>
       </c>
       <c r="L4">
         <f>PI()*(diamdiagl/10)^2/4</f>
-        <v>1.1309733552923256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.0106192982974678</v>
+      </c>
+      <c r="S4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4">
+        <v>40</v>
+      </c>
+      <c r="U4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" t="s">
+        <v>97</v>
+      </c>
+      <c r="X4">
+        <f>PI()*(X3/10)^2/4</f>
+        <v>2.0106192982974678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2365,17 +2443,40 @@
         <v>25</v>
       </c>
       <c r="E5" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
         <v>27</v>
       </c>
       <c r="L5">
         <f>PI()*(diamdiags/10)^2/4</f>
-        <v>1.1309733552923256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.0106192982974678</v>
+      </c>
+      <c r="S5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T5">
+        <f>SQRT(T3^2+(T4/2)^2)</f>
+        <v>53.851648071345039</v>
+      </c>
+      <c r="W5" t="s">
+        <v>98</v>
+      </c>
+      <c r="X5">
+        <f>X3/40</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S6" t="s">
+        <v>104</v>
+      </c>
+      <c r="T6">
+        <f>ATAN(2*T3/T4)</f>
+        <v>1.1902899496825317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2396,8 +2497,15 @@
         <f>4*L3</f>
         <v>12.566370614359172</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S7" t="s">
+        <v>99</v>
+      </c>
+      <c r="T7">
+        <f>0.85*T5/X5</f>
+        <v>114.43475215160819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2412,20 +2520,50 @@
         <v>47.43</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S9" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9">
+        <f>T7*SQRT(X2/E)/PI()</f>
+        <v>1.6290074049348584</v>
+      </c>
+      <c r="W9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X9">
+        <f>0.451+0.245*T9+0.5*T9^2</f>
+        <v>2.1769393768753411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S10" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10">
+        <f>1/(X9+SQRT(X9^2-T9^2))</f>
+        <v>0.27616445869860889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T11">
+        <f>T10*X2</f>
+        <v>110.46578347944356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2433,7 +2571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2443,8 +2581,14 @@
       <c r="E13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S13" t="s">
+        <v>103</v>
+      </c>
+      <c r="T13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2463,8 +2607,15 @@
       <c r="G14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>102</v>
+      </c>
+      <c r="T14">
+        <f>2*T13*T11*X4*SIN(T6)*0.1</f>
+        <v>32.995036403872327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2484,7 +2635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -2503,8 +2654,14 @@
       <c r="G16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>103</v>
+      </c>
+      <c r="T16">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -2523,18 +2680,25 @@
       <c r="G17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S17" t="s">
+        <v>105</v>
+      </c>
+      <c r="T17">
+        <f>T16*T11*X4*0.1</f>
+        <v>17.768370885225504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -2549,7 +2713,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2564,12 +2728,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2583,7 +2747,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2599,26 +2763,26 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <f>ROUND(PI()*SQRT(2*L7*d^3/(ncero*L4*s*h^2)),2)</f>
-        <v>13.88</v>
+        <v>10.41</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
       </c>
       <c r="E29">
         <f>ROUND(PI()*SQRT(2*L7*E7^3/(ncero*L5*s*b^2)),2)</f>
-        <v>11.95</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="G29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2656,14 +2820,14 @@
       </c>
       <c r="B35">
         <f>ROUND(SQRT(B33^2+B29^2),2)</f>
-        <v>32.450000000000003</v>
+        <v>31.13</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
       </c>
       <c r="E35">
         <f>ROUND(SQRT(E33^2+E29^2),2)</f>
-        <v>67.069999999999993</v>
+        <v>66.61</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2672,14 +2836,14 @@
       </c>
       <c r="B37">
         <f>ROUND(PI()^2*E*L7*0.1/B35^2,2)</f>
-        <v>2355.65</v>
+        <v>2559.65</v>
       </c>
       <c r="D37" t="s">
         <v>44</v>
       </c>
       <c r="E37">
         <f>ROUND(PI()^2*E*L7*0.1/E35^2,2)</f>
-        <v>551.41999999999996</v>
+        <v>559.05999999999995</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2688,7 +2852,7 @@
       </c>
       <c r="B39">
         <f>ROUND(F15*B27*0.01+F14/(1-F15/B37),2)</f>
-        <v>49.27</v>
+        <v>49.22</v>
       </c>
       <c r="D39" t="s">
         <v>46</v>
@@ -2704,7 +2868,7 @@
       </c>
       <c r="B41">
         <f>ROUND(F15/n+B39*100/(nuno*h)+E39*100/(nuno*b),2)</f>
-        <v>62.96</v>
+        <v>62.91</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2718,7 +2882,7 @@
       </c>
       <c r="B44">
         <f>MAX(B23,B41)</f>
-        <v>62.96</v>
+        <v>62.91</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2799,7 +2963,7 @@
       </c>
       <c r="E53">
         <f>B44/B53</f>
-        <v>0.99730714398859499</v>
+        <v>0.99651512751465221</v>
       </c>
       <c r="F53" t="str">
         <f>IF(E53&gt;G53,"&gt;","&lt;")</f>
@@ -2890,14 +3054,14 @@
       </c>
       <c r="B67">
         <f>PI()*(1/(1-F15/B37))/400</f>
-        <v>7.9521492308729132E-3</v>
+        <v>7.9442355237763756E-3</v>
       </c>
       <c r="D67" t="s">
         <v>66</v>
       </c>
       <c r="E67">
         <f>PI()*(1/(1-F15/E37))/400</f>
-        <v>8.2912328226944308E-3</v>
+        <v>8.2849295677002426E-3</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2906,14 +3070,14 @@
       </c>
       <c r="B69">
         <f>F17+B67*F15</f>
-        <v>11.591248499633783</v>
+        <v>11.591018369031417</v>
       </c>
       <c r="D69" t="s">
         <v>70</v>
       </c>
       <c r="E69">
         <f>F16+E67*F15</f>
-        <v>0.24110905048395403</v>
+        <v>0.24092575182872303</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2922,14 +3086,14 @@
       </c>
       <c r="B71">
         <f>B69/(2*h/d)</f>
-        <v>6.1085879593070045</v>
+        <v>6.1084666804795571</v>
       </c>
       <c r="D71" t="s">
         <v>64</v>
       </c>
       <c r="E71">
         <f>E69/(2*b/E7)</f>
-        <v>0.15069315655247126</v>
+        <v>0.15057859489295189</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2943,7 +3107,7 @@
       </c>
       <c r="B75">
         <f>MAX(B63,E63,B71,E71)</f>
-        <v>6.1085879593070045</v>
+        <v>6.1084666804795571</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2980,14 +3144,14 @@
       </c>
       <c r="B80">
         <f>4*B79*SQRT(fydiag/E)/(PI()*diamdiag*0.1)</f>
-        <v>1.41872187644257</v>
+        <v>1.4347531409567602</v>
       </c>
       <c r="D80" t="s">
         <v>53</v>
       </c>
       <c r="E80">
         <f>0.451+0.245*B80+0.5*B80^2</f>
-        <v>1.8049727410767931</v>
+        <v>1.8317728072770509</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -2996,7 +3160,7 @@
       </c>
       <c r="B81">
         <f>1/(E80+SQRT(E80^2-B80^2))</f>
-        <v>0.34236752189612268</v>
+        <v>0.33663493396099065</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3005,7 +3169,7 @@
       </c>
       <c r="B82">
         <f>B81*fydiag</f>
-        <v>75.320854817146994</v>
+        <v>134.65397358439625</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3014,14 +3178,14 @@
       </c>
       <c r="B84">
         <f>B77*B82*L4*0.1</f>
-        <v>7.2407997911629636</v>
+        <v>23.01271961990409</v>
       </c>
       <c r="D84" t="s">
         <v>57</v>
       </c>
       <c r="E84">
         <f>B75/B84</f>
-        <v>0.84363442375001618</v>
+        <v>0.26543871308440403</v>
       </c>
       <c r="F84" t="str">
         <f>IF(E84&gt;G84,"&gt;","&lt;")</f>
@@ -3072,7 +3236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D620A744-0E5E-4580-B89D-7A6A8AD8B535}">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/Proyectos/23-010_TAYARA_Nave/01_Hojas de calculo/HierroRedondo.xlsx
+++ b/Proyectos/23-010_TAYARA_Nave/01_Hojas de calculo/HierroRedondo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76343182-60A2-4D29-AB42-3BBBC445DE2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EBA258-7879-4430-8580-F8089E79E938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3236,8 +3236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D620A744-0E5E-4580-B89D-7A6A8AD8B535}">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="2">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="K4" t="s">
         <v>26</v>
@@ -3321,7 +3321,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="E7">
         <f>ROUND(SQRT((B5/2)^2+b^2),2)</f>
-        <v>25</v>
+        <v>28.28</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="E8">
         <f>ROUND(SQRT((B5/2)^2+h^2),2)</f>
-        <v>42.72</v>
+        <v>44.72</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3570,14 +3570,14 @@
       </c>
       <c r="B29">
         <f>ROUND(PI()*SQRT(2*L7*d^3/(ncero*L4*s*h^2)),2)</f>
-        <v>13.35</v>
+        <v>12.38</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
       </c>
       <c r="E29">
         <f>ROUND(PI()*SQRT(2*L7*E7^3/(ncero*L5*s*b^2)),2)</f>
-        <v>11.95</v>
+        <v>12.45</v>
       </c>
       <c r="G29" t="s">
         <v>75</v>
@@ -3621,14 +3621,14 @@
       </c>
       <c r="B35">
         <f>ROUND(SQRT(B33^2+B29^2),2)</f>
-        <v>35.6</v>
+        <v>35.25</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
       </c>
       <c r="E35">
         <f>ROUND(SQRT(E33^2+E29^2),2)</f>
-        <v>67.069999999999993</v>
+        <v>67.16</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3637,14 +3637,14 @@
       </c>
       <c r="B37">
         <f>ROUND(PI()^2*E*L7*0.1/B35^2,2)</f>
-        <v>1957.22</v>
+        <v>1996.28</v>
       </c>
       <c r="D37" t="s">
         <v>44</v>
       </c>
       <c r="E37">
         <f>ROUND(PI()^2*E*L7*0.1/E35^2,2)</f>
-        <v>551.41999999999996</v>
+        <v>549.94000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B48">
         <f>s*B47</f>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3723,14 +3723,14 @@
       </c>
       <c r="B49">
         <f>ROUND(4*B48*SQRT(fycord/E)/(PI()*diamcord*0.1),3)</f>
-        <v>0.85399999999999998</v>
+        <v>1.139</v>
       </c>
       <c r="D49" t="s">
         <v>53</v>
       </c>
       <c r="E49">
         <f>0.451+0.245*B49+0.5*B49^2</f>
-        <v>1.024888</v>
+        <v>1.3787155</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="B50">
         <f>ROUND(1/(E49+SQRT(E49^2-B49^2)),3)</f>
-        <v>0.628</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B51">
         <f>ROUND(B50*fycord,2)</f>
-        <v>251.2</v>
+        <v>185.6</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3757,14 +3757,14 @@
       </c>
       <c r="B53">
         <f>ROUND(B46*B51*L3*0.1,2)</f>
-        <v>63.13</v>
+        <v>46.65</v>
       </c>
       <c r="D53" t="s">
         <v>57</v>
       </c>
       <c r="E53">
         <f>B44/B53</f>
-        <v>0.58735941707587513</v>
+        <v>0.79485530546623795</v>
       </c>
       <c r="F53" t="str">
         <f>IF(E53&gt;G53,"&gt;","&lt;")</f>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="B63">
         <f>ROUND(B17/(2*h/d),2)</f>
-        <v>2.78</v>
+        <v>2.91</v>
       </c>
       <c r="D63" t="s">
         <v>64</v>
@@ -3855,14 +3855,14 @@
       </c>
       <c r="B67">
         <f>PI()*(1/(1-F15/B37))/400</f>
-        <v>7.9692520302385977E-3</v>
+        <v>7.966964159143981E-3</v>
       </c>
       <c r="D67" t="s">
         <v>66</v>
       </c>
       <c r="E67">
         <f>PI()*(1/(1-F15/E37))/400</f>
-        <v>8.2790284120093458E-3</v>
+        <v>8.2802343802847369E-3</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3871,14 +3871,14 @@
       </c>
       <c r="B69">
         <f>F17+B67*F15</f>
-        <v>5.8356095249760553</v>
+        <v>5.8355447553453663</v>
       </c>
       <c r="D69" t="s">
         <v>70</v>
       </c>
       <c r="E69">
         <f>F16+E67*F15</f>
-        <v>0.23437929434398458</v>
+        <v>0.2344134353058609</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3887,14 +3887,14 @@
       </c>
       <c r="B71">
         <f>B69/(2*h/d)</f>
-        <v>3.1162154863372131</v>
+        <v>3.2620695182380599</v>
       </c>
       <c r="D71" t="s">
         <v>64</v>
       </c>
       <c r="E71">
         <f>E69/(2*b/E7)</f>
-        <v>0.14648705896499034</v>
+        <v>0.16573029876124365</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="B75">
         <f>MAX(B63,E63,B71,E71)</f>
-        <v>3.1162154863372131</v>
+        <v>3.2620695182380599</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3916,7 +3916,7 @@
         <v>50</v>
       </c>
       <c r="B77" s="2">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="E77" t="s">
         <v>81</v>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B79">
         <f>B78*d</f>
-        <v>36.311999999999998</v>
+        <v>38.012</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3945,14 +3945,14 @@
       </c>
       <c r="B80">
         <f>4*B79*SQRT(fydiag/E)/(PI()*diamdiag*0.1)</f>
-        <v>1.2778367818179757</v>
+        <v>1.8037011866915824</v>
       </c>
       <c r="D80" t="s">
         <v>53</v>
       </c>
       <c r="E80">
         <f>0.451+0.245*B80+0.5*B80^2</f>
-        <v>1.5805034320288645</v>
+        <v>2.5195757761757491</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B81">
         <f>1/(E80+SQRT(E80^2-B80^2))</f>
-        <v>0.39830735420451541</v>
+        <v>0.23370954389632645</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="B82">
         <f>B81*fydiag</f>
-        <v>87.627617924993388</v>
+        <v>93.483817558530575</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3979,14 +3979,14 @@
       </c>
       <c r="B84">
         <f>B77*B82*L4*0.1</f>
-        <v>8.4238825901768148</v>
+        <v>8.4582165447765565</v>
       </c>
       <c r="D84" t="s">
         <v>57</v>
       </c>
       <c r="E84">
         <f>B75/B84</f>
-        <v>0.3699262724733447</v>
+        <v>0.38566871644502632</v>
       </c>
       <c r="F84" t="str">
         <f>IF(E84&gt;G84,"&gt;","&lt;")</f>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="B93">
         <f>10*B92*h/(s*ncero)</f>
-        <v>10.471975511965978</v>
+        <v>7.8539816339744828</v>
       </c>
     </row>
   </sheetData>

--- a/Proyectos/23-010_TAYARA_Nave/01_Hojas de calculo/HierroRedondo.xlsx
+++ b/Proyectos/23-010_TAYARA_Nave/01_Hojas de calculo/HierroRedondo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EBA258-7879-4430-8580-F8089E79E938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17FD5B8-923D-4372-996D-56B0370FA867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,8 @@
     <sheet name="Col cn mom red" sheetId="3" r:id="rId3"/>
     <sheet name="Col Exist Inf" sheetId="5" r:id="rId4"/>
     <sheet name="Col Exist Sup" sheetId="4" r:id="rId5"/>
-    <sheet name="Larguero" sheetId="6" r:id="rId6"/>
+    <sheet name="Larguero Lateral" sheetId="8" r:id="rId6"/>
+    <sheet name="Larguero Frontal" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="b" localSheetId="2">'Col cn mom red'!$B$3</definedName>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="109">
   <si>
     <t>diam cord</t>
   </si>
@@ -423,6 +424,15 @@
   </si>
   <si>
     <t>Pd</t>
+  </si>
+  <si>
+    <t>Adiag</t>
+  </si>
+  <si>
+    <t>Acord+</t>
+  </si>
+  <si>
+    <t>Acord-</t>
   </si>
 </sst>
 </file>
@@ -3236,8 +3246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D620A744-0E5E-4580-B89D-7A6A8AD8B535}">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5636,16 +5646,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAF4C34-E45E-424C-99FC-3548278B0E08}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B308DBD1-AC8D-485B-BAAE-658C0F2AF901}">
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -5664,8 +5674,21 @@
       <c r="H1">
         <v>400</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1">
+        <f>ROUND(PI()*(E1/10)^2/4,2)</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5682,23 +5705,37 @@
         <v>89</v>
       </c>
       <c r="H2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="J2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K3" si="0">ROUND(PI()*(E2/10)^2/4,2)</f>
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>84</v>
       </c>
       <c r="E3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>90</v>
@@ -5707,7 +5744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -5718,10 +5755,10 @@
         <v>91</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -5729,7 +5766,7 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -5737,12 +5774,12 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -5750,12 +5787,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11">
-        <v>5.2080000000000002</v>
+        <v>2.93</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -5764,7 +5801,7 @@
         <v>4.1959999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -5772,12 +5809,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13">
-        <v>1.4179999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -5786,7 +5823,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -5794,18 +5831,407 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
         <f>B11*100/(E4*B1)+B13*100/(E5*B2)</f>
-        <v>20.11</v>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <f>B21*B4</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <f>ROUND(4*B22*SQRT(H1/N1)/(PI()*E1*0.1),3)</f>
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23">
+        <f>0.451+0.245*B23+0.5*B23^2</f>
+        <v>1.8137679999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <f>ROUND(1/(E23+SQRT(E23^2-B23^2)),3)</f>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <f>ROUND(B24*H2,2)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27">
+        <f>ROUND(B20*B25*K1*0.1,2)</f>
+        <v>12.29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27">
+        <f>B18/B27</f>
+        <v>0.71602929210740451</v>
+      </c>
+      <c r="F27" t="str">
+        <f>IF(E27&gt;G27,"&gt;","&lt;")</f>
+        <v>&lt;</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="str">
+        <f>IF(F27="&lt;","Verifica","No Verifica")</f>
+        <v>Verifica</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAF4C34-E45E-424C-99FC-3548278B0E08}">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1">
+        <v>400</v>
+      </c>
+      <c r="J1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1">
+        <f>ROUND(PI()*(E1/10)^2/4,2)</f>
+        <v>0.79</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2">
+        <v>400</v>
+      </c>
+      <c r="J2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K3" si="0">ROUND(PI()*(E2/10)^2/4,2)</f>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>63.43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7">
+        <v>26.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>1.72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>4.1959999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <f>B11*100/(E4*B1)+B13*100/(E5*B2)</f>
+        <v>4.6499999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <f>B21*B4</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <f>ROUND(4*B22*SQRT(H1/N1)/(PI()*E1*0.1),3)</f>
+        <v>1.139</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23">
+        <f>0.451+0.245*B23+0.5*B23^2</f>
+        <v>1.3787155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <f>ROUND(1/(E23+SQRT(E23^2-B23^2)),3)</f>
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <f>ROUND(B24*H2,2)</f>
+        <v>185.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27">
+        <f>ROUND(B20*B25*K1*0.1,2)</f>
+        <v>11.73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27">
+        <f>B18/B27</f>
+        <v>0.39641943734015339</v>
+      </c>
+      <c r="F27" t="str">
+        <f>IF(E27&gt;G27,"&gt;","&lt;")</f>
+        <v>&lt;</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="str">
+        <f>IF(F27="&lt;","Verifica","No Verifica")</f>
+        <v>Verifica</v>
       </c>
     </row>
   </sheetData>

--- a/Proyectos/23-010_TAYARA_Nave/01_Hojas de calculo/HierroRedondo.xlsx
+++ b/Proyectos/23-010_TAYARA_Nave/01_Hojas de calculo/HierroRedondo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17FD5B8-923D-4372-996D-56B0370FA867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5D26D5-0620-4913-9923-71853E5DEAEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diag hierro red" sheetId="7" r:id="rId1"/>
@@ -1511,7 +1511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8134FEA2-03FF-4D30-B04E-33BDB5B44267}">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -3246,8 +3246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D620A744-0E5E-4580-B89D-7A6A8AD8B535}">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5649,7 +5649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B308DBD1-AC8D-485B-BAAE-658C0F2AF901}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -5947,7 +5947,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6032,7 +6032,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>90</v>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="B22">
         <f>B21*B4</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -6179,14 +6179,14 @@
       </c>
       <c r="B23">
         <f>ROUND(4*B22*SQRT(H1/N1)/(PI()*E1*0.1),3)</f>
-        <v>1.139</v>
+        <v>1.708</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
       </c>
       <c r="E23">
         <f>0.451+0.245*B23+0.5*B23^2</f>
-        <v>1.3787155</v>
+        <v>2.3280919999999998</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="B24">
         <f>ROUND(1/(E23+SQRT(E23^2-B23^2)),3)</f>
-        <v>0.46400000000000002</v>
+        <v>0.25600000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="B25">
         <f>ROUND(B24*H2,2)</f>
-        <v>185.6</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -6213,14 +6213,14 @@
       </c>
       <c r="B27">
         <f>ROUND(B20*B25*K1*0.1,2)</f>
-        <v>11.73</v>
+        <v>6.47</v>
       </c>
       <c r="D27" t="s">
         <v>57</v>
       </c>
       <c r="E27">
         <f>B18/B27</f>
-        <v>0.39641943734015339</v>
+        <v>0.71870170015455948</v>
       </c>
       <c r="F27" t="str">
         <f>IF(E27&gt;G27,"&gt;","&lt;")</f>
